--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:09:54+00:00</t>
+    <t>2024-05-21T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T08:18:01+00:00</t>
+    <t>2024-05-23T12:26:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
+++ b/update-mapping-pn13/ig/CodeSystem-CSSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
